--- a/va_facility_data_2025-02-20/Rapid City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rapid%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Rapid City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rapid%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R3cd38dddd7cd4ccfb7d5b385f29a0eda"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Raf197db8a66e46ae91aa9655c3612bfd"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rad9236b5ac5f4af4937dec9f2395ef41"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5a49f0a41578444591bdb86eb6fec46a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R42c61be809d545a6aed0d1ad4ea1de86"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R90dd661c05e343bbb473c83f9f2f4638"/>
   </x:sheets>
 </x:workbook>
 </file>
